--- a/price-check.xlsx
+++ b/price-check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\price_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54901563-295B-418D-A1EC-FFC6D40C5AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE68483D-45A3-40FB-8DC7-01FBAC7BEDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2CC607E8-0678-49BE-B2B8-ED02955595C0}"/>
+    <workbookView xWindow="16560" yWindow="2490" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{2CC607E8-0678-49BE-B2B8-ED02955595C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,8 +415,7 @@
     <t>6923185649885</t>
   </si>
   <si>
-    <t>Price-Limit</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>限价</t>
   </si>
 </sst>
 </file>
@@ -5075,7 +5074,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
